--- a/IPL/Chennai Super Kings/Vijay Shankar.xlsx
+++ b/IPL/Chennai Super Kings/Vijay Shankar.xlsx
@@ -445,28 +445,31 @@
         <v>Vijay Shankar</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" t="str">
+        <v>21</v>
+      </c>
+      <c r="E2" t="str">
         <v>2</v>
       </c>
-      <c r="E2" t="str">
-        <v>0</v>
-      </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>128.57</v>
       </c>
       <c r="H2" t="str">
         <v>Gujarat Titans</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J2" t="str">
-        <v>April 17 2022</v>
+        <v>March 31 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Vijay Shankar</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>140.00</v>
       </c>
       <c r="H3" t="str">
         <v>Gujarat Titans</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Chennai</v>
       </c>
       <c r="J3" t="str">
-        <v>April 17 2022</v>
+        <v>May 23 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 3 wickets (with 1 ball remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
